--- a/Modèle-plan-tests-acceptation.xlsx
+++ b/Modèle-plan-tests-acceptation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpira\Desktop\Formation\P5_pirat_geoffrey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06FAA57-1B66-45C8-B573-40F9B817DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C3F5B-05E2-4272-8F99-7485A915A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -43,10 +43,28 @@
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>Affichage le canapé selectionné</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Une page panier qui récapitule la sélection des produits, sa quantité total ainsi que son prix total.</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page produit du site web dans un navigateur</t>
+  </si>
+  <si>
+    <t>Affiche le récapitulatif de la commande</t>
+  </si>
+  <si>
+    <t>Une page produit qui une fois le canapé sélectionné de la page d'accueil, redirige sur celle-ci et montre ses informations détaillées, le choix de sa couleur, sa quantité.</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page panier du site web dans un navigateur</t>
   </si>
 </sst>
 </file>
@@ -339,9 +357,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -357,18 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -388,6 +391,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -638,172 +656,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modèle-plan-tests-acceptation.xlsx
+++ b/Modèle-plan-tests-acceptation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpira\Desktop\Formation\P5_pirat_geoffrey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C3F5B-05E2-4272-8F99-7485A915A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB38C14-1AA8-414A-BA2E-135F4A0C105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -37,34 +37,94 @@
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
-    <t>Ouvrir sur la page d'accueil du site web dans un navigateur</t>
-  </si>
-  <si>
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Affichage le canapé selectionné</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Une page panier qui récapitule la sélection des produits, sa quantité total ainsi que son prix total.</t>
-  </si>
-  <si>
-    <t>Ouvrir sur la page produit du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t>Affiche le récapitulatif de la commande</t>
-  </si>
-  <si>
-    <t>Une page produit qui une fois le canapé sélectionné de la page d'accueil, redirige sur celle-ci et montre ses informations détaillées, le choix de sa couleur, sa quantité.</t>
-  </si>
-  <si>
     <t>Ouvrir sur la page panier du site web dans un navigateur</t>
+  </si>
+  <si>
+    <t>Depuis la page produit, bouton qui permet d'ajouter au panier l'article définie</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page produit du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page d'accueil du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>Si la quantité est supérieur à 0, enregistre les informations de l'article, ses informations, sa couleur et sa quantité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistre les informations de l'article, sa couleur et quantité dans le localstorage </t>
+  </si>
+  <si>
+    <t>Depuis la page panier, possibilité de modifier la quantité de l'article, ou bien de le supprimer.</t>
+  </si>
+  <si>
+    <t>Affiche la quantité et le boutton "supprimer" de l'article.</t>
+  </si>
+  <si>
+    <t>Redirige vers la page confirmation pour afficher le numéro de la commande.</t>
+  </si>
+  <si>
+    <t>Vérifie et envoie les données du panier et du formulaire au serveur.</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page confirmation du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>Affiche un message indiquant que la commande est valide avec le numéro de commande.</t>
+  </si>
+  <si>
+    <t>Depuis la page produit, affiche un menu déroulant qui contient les différentes couleurs de l'article  récupérées depuis l'API du serveur.</t>
+  </si>
+  <si>
+    <t>Affiche la couleur sélectionnée du menu déroulant.</t>
+  </si>
+  <si>
+    <t>Affiche le chiffre rentré par l'utilisateur et lui permet de le modifier.</t>
+  </si>
+  <si>
+    <t>Affichage le canapé selectionné et ses informations, un menu déroulant pour le choix de la couleur, un input pour définir la quantité, ainsi qu'un boutton "Ajouter au panier".</t>
+  </si>
+  <si>
+    <t>Modification de la quantité ou suppression de l'article puis sauvegarde la quantité dans le localstorage.</t>
+  </si>
+  <si>
+    <t>Affiche un menu déroulant. Celui-ci contient les différentes couleurs possible.</t>
+  </si>
+  <si>
+    <t>Affiche un input. Il permettra la définition de la quantité par le chiffre rentré par l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Depuis la page produit, possibilité de définir la quantité de l'article voulue en entrant un chiffre dans un input et/ou d'augmenter de diminuer sa quantité par un clic sur icone fléché.</t>
+  </si>
+  <si>
+    <t>Une page produit montrant (de manière dynamique)  l'article sélectionné depuis la page d'accueil, les informations détaillées de celui-ci, le choix de sa couleur et de sa quantité, ainsi qu'un boutton "Ajouter au panier".</t>
+  </si>
+  <si>
+    <t>Une page panier montrant (de manière dynamique) le récapitulatif des articles ajouté au panier depuis la page produit, la possibilité de changer la quantité ou de supprimer un article en particulier. Un récapitulatif de la quantité et du prix total de tous les articles sélectionnés. Possédant un formulaire ainsi qu'un boutton "Commander !"</t>
+  </si>
+  <si>
+    <t>Affiche le récapitulatif de la commande, le choix de modifier la quantité de l'article et la possiblilité de le supprimer, un formulaire, le bouton "Commander !"</t>
+  </si>
+  <si>
+    <t>Affichage du formulaire, dont l'utilisateur peut rentrer des informations dans les inputs.</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, boutton "Commander !" qui permet d'envoyer les informations récoltées du panier et du formulaire au serveur si celles-ci sont valide.</t>
+  </si>
+  <si>
+    <t>Affiche un formulaire, si données valides, bordure verte autour de l'input et sinon, bordure rouge avec message d'erreur.</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, formulaire permettant de récolter les informations entrées par l'utilisateur de son prénom, nom, adresse, ville et email et de vérifier si celles-ci sont valides. Si valides, bordure verte autour de l'input pour indiquer que données OK, sinon bordure rouge et message d'erreur.</t>
+  </si>
+  <si>
+    <t>Une page confirmation montrant (de manière dynamique) un message de validation de la commande avec son numéro de commande généré par le serveur.</t>
   </si>
 </sst>
 </file>
@@ -343,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -626,10 +683,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -657,187 +714,258 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="109.3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.7">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="131.15" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="B9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modèle-plan-tests-acceptation.xlsx
+++ b/Modèle-plan-tests-acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpira\Desktop\Formation\P5_pirat_geoffrey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB38C14-1AA8-414A-BA2E-135F4A0C105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10CE9-F176-456C-AA3B-FC9C046443C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
-    <t>Affichage de l'ensemble des produits</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>Affiche la quantité et le boutton "supprimer" de l'article.</t>
   </si>
   <si>
-    <t>Redirige vers la page confirmation pour afficher le numéro de la commande.</t>
-  </si>
-  <si>
-    <t>Vérifie et envoie les données du panier et du formulaire au serveur.</t>
-  </si>
-  <si>
     <t>Ouvrir sur la page confirmation du site web dans un navigateur.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>Affiche le chiffre rentré par l'utilisateur et lui permet de le modifier.</t>
   </si>
   <si>
-    <t>Affichage le canapé selectionné et ses informations, un menu déroulant pour le choix de la couleur, un input pour définir la quantité, ainsi qu'un boutton "Ajouter au panier".</t>
-  </si>
-  <si>
     <t>Modification de la quantité ou suppression de l'article puis sauvegarde la quantité dans le localstorage.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>Depuis la page produit, possibilité de définir la quantité de l'article voulue en entrant un chiffre dans un input et/ou d'augmenter de diminuer sa quantité par un clic sur icone fléché.</t>
   </si>
   <si>
-    <t>Une page produit montrant (de manière dynamique)  l'article sélectionné depuis la page d'accueil, les informations détaillées de celui-ci, le choix de sa couleur et de sa quantité, ainsi qu'un boutton "Ajouter au panier".</t>
-  </si>
-  <si>
     <t>Une page panier montrant (de manière dynamique) le récapitulatif des articles ajouté au panier depuis la page produit, la possibilité de changer la quantité ou de supprimer un article en particulier. Un récapitulatif de la quantité et du prix total de tous les articles sélectionnés. Possédant un formulaire ainsi qu'un boutton "Commander !"</t>
   </si>
   <si>
@@ -125,6 +110,21 @@
   </si>
   <si>
     <t>Une page confirmation montrant (de manière dynamique) un message de validation de la commande avec son numéro de commande généré par le serveur.</t>
+  </si>
+  <si>
+    <t>Une page produit montrant (de manière dynamique)  l'article sélectionné depuis la page d'accueil, les informations détaillées de celui-ci, un menu déroulant pour le choix de sa couleur et un input pour ajouté une quantité, ainsi qu'un boutton "Ajouter au panier".</t>
+  </si>
+  <si>
+    <t>Vérifie et envoie les données récoltées du panier et du formulaire au serveur.</t>
+  </si>
+  <si>
+    <t>Redirige vers la page confirmation pour afficher le numéro de la commande. Si celui-ci est incorrecte, un message d'erreur est affiché.</t>
+  </si>
+  <si>
+    <t>Affichage de l'ensemble des produits récupérés depuis l'API du serveur.</t>
+  </si>
+  <si>
+    <t>Affiche le canapé selectionné et ses informations, un menu déroulant contenant les différentes couleurs, un input pour définir la quantité, ainsi qu'un boutton "Ajouter au panier".</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -721,30 +721,30 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="109.3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="131.15" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.7">
@@ -752,16 +752,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
@@ -769,16 +769,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
@@ -786,16 +786,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.3">
@@ -803,16 +803,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
@@ -820,16 +820,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="131.15" x14ac:dyDescent="0.3">
@@ -837,16 +837,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
@@ -854,16 +854,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
@@ -871,16 +871,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">

--- a/Modèle-plan-tests-acceptation.xlsx
+++ b/Modèle-plan-tests-acceptation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpira\Desktop\Formation\P5_pirat_geoffrey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10CE9-F176-456C-AA3B-FC9C046443C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B8018-4F53-4E91-91C5-51AB03BA383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -43,88 +43,106 @@
     <t>Ouvrir sur la page panier du site web dans un navigateur</t>
   </si>
   <si>
-    <t>Depuis la page produit, bouton qui permet d'ajouter au panier l'article définie</t>
-  </si>
-  <si>
     <t>Ouvrir sur la page produit du site web dans un navigateur.</t>
   </si>
   <si>
     <t>Ouvrir sur la page d'accueil du site web dans un navigateur.</t>
   </si>
   <si>
-    <t>Si la quantité est supérieur à 0, enregistre les informations de l'article, ses informations, sa couleur et sa quantité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enregistre les informations de l'article, sa couleur et quantité dans le localstorage </t>
-  </si>
-  <si>
-    <t>Depuis la page panier, possibilité de modifier la quantité de l'article, ou bien de le supprimer.</t>
-  </si>
-  <si>
-    <t>Affiche la quantité et le boutton "supprimer" de l'article.</t>
-  </si>
-  <si>
-    <t>Ouvrir sur la page confirmation du site web dans un navigateur.</t>
-  </si>
-  <si>
-    <t>Affiche un message indiquant que la commande est valide avec le numéro de commande.</t>
-  </si>
-  <si>
-    <t>Depuis la page produit, affiche un menu déroulant qui contient les différentes couleurs de l'article  récupérées depuis l'API du serveur.</t>
-  </si>
-  <si>
-    <t>Affiche la couleur sélectionnée du menu déroulant.</t>
-  </si>
-  <si>
-    <t>Affiche le chiffre rentré par l'utilisateur et lui permet de le modifier.</t>
-  </si>
-  <si>
-    <t>Modification de la quantité ou suppression de l'article puis sauvegarde la quantité dans le localstorage.</t>
-  </si>
-  <si>
-    <t>Affiche un menu déroulant. Celui-ci contient les différentes couleurs possible.</t>
-  </si>
-  <si>
-    <t>Affiche un input. Il permettra la définition de la quantité par le chiffre rentré par l'utilisateur.</t>
-  </si>
-  <si>
     <t>Depuis la page produit, possibilité de définir la quantité de l'article voulue en entrant un chiffre dans un input et/ou d'augmenter de diminuer sa quantité par un clic sur icone fléché.</t>
   </si>
   <si>
-    <t>Une page panier montrant (de manière dynamique) le récapitulatif des articles ajouté au panier depuis la page produit, la possibilité de changer la quantité ou de supprimer un article en particulier. Un récapitulatif de la quantité et du prix total de tous les articles sélectionnés. Possédant un formulaire ainsi qu'un boutton "Commander !"</t>
-  </si>
-  <si>
     <t>Affiche le récapitulatif de la commande, le choix de modifier la quantité de l'article et la possiblilité de le supprimer, un formulaire, le bouton "Commander !"</t>
   </si>
   <si>
-    <t>Affichage du formulaire, dont l'utilisateur peut rentrer des informations dans les inputs.</t>
-  </si>
-  <si>
-    <t>Depuis la page panier, boutton "Commander !" qui permet d'envoyer les informations récoltées du panier et du formulaire au serveur si celles-ci sont valide.</t>
-  </si>
-  <si>
-    <t>Affiche un formulaire, si données valides, bordure verte autour de l'input et sinon, bordure rouge avec message d'erreur.</t>
-  </si>
-  <si>
-    <t>Depuis la page panier, formulaire permettant de récolter les informations entrées par l'utilisateur de son prénom, nom, adresse, ville et email et de vérifier si celles-ci sont valides. Si valides, bordure verte autour de l'input pour indiquer que données OK, sinon bordure rouge et message d'erreur.</t>
-  </si>
-  <si>
-    <t>Une page confirmation montrant (de manière dynamique) un message de validation de la commande avec son numéro de commande généré par le serveur.</t>
-  </si>
-  <si>
     <t>Une page produit montrant (de manière dynamique)  l'article sélectionné depuis la page d'accueil, les informations détaillées de celui-ci, un menu déroulant pour le choix de sa couleur et un input pour ajouté une quantité, ainsi qu'un boutton "Ajouter au panier".</t>
   </si>
   <si>
-    <t>Vérifie et envoie les données récoltées du panier et du formulaire au serveur.</t>
-  </si>
-  <si>
-    <t>Redirige vers la page confirmation pour afficher le numéro de la commande. Si celui-ci est incorrecte, un message d'erreur est affiché.</t>
-  </si>
-  <si>
     <t>Affichage de l'ensemble des produits récupérés depuis l'API du serveur.</t>
   </si>
   <si>
     <t>Affiche le canapé selectionné et ses informations, un menu déroulant contenant les différentes couleurs, un input pour définir la quantité, ainsi qu'un boutton "Ajouter au panier".</t>
+  </si>
+  <si>
+    <t>Le bouton "Ajouter au panier" avant la sauvegarde dans le localstorage, vérifie si il y a déjà des éléments présent dans celui-ci et permet d'additionner sa quantité à celle de la page "product".</t>
+  </si>
+  <si>
+    <t>Enregistre les informations de l'article, sa couleur et quantité dans une clé nommée "Data" dans le localstorage.  Message  popup à l'utilisateur : "Votre sélection a été ajoutée au panier !".</t>
+  </si>
+  <si>
+    <t>Si article présent dans la clé "Data" du localstorage, récupère sa quantité et l'additionne à celle de la page "product". Message popup à l'utilisateur : " La quantité a été ajoutée au panier !".</t>
+  </si>
+  <si>
+    <t>Additionne la quantité de la page "produit" de l'article présent dans la clé "Data" du localstorage si celui-ci est déjà présent. Message popup à l'utilisateur : " La quantité a été ajoutée au panier !".</t>
+  </si>
+  <si>
+    <t>Une page panier montrant (de manière dynamique) le récapitulatif des articles récupérés depuis la clé "Data" du localstorage, la possibilité de changer la quantité ou de supprimer un article. Un récapitulatif de la quantité et du prix total de tous les articles sélectionnés. Possédant un formulaire ainsi qu'un boutton "Commander !"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis la page "panier", input permettant d'afficher et de modifier la quantité de l'article, celle-ci est sauvegardé à chaque évenement de changement de valeur dans la clé "Data" du localstorage. </t>
+  </si>
+  <si>
+    <t>Affiche la quantité récupérée du localstorage. Si la quantité change, sauvegarde la nouvelle quantité de l'article dans le localstorage.</t>
+  </si>
+  <si>
+    <t>Affiche la quantité de l'article récupérée depuis le localstorage. Sauvegarde la nouvelle quantité après un évenement "change" dans le localstorage.</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, bouton "Supprimer" permettant de supprimer l'article du localstorage ainsi que du DOM.</t>
+  </si>
+  <si>
+    <t>Supprime l'article du localstorage ainsi que du DOM de la page "panier" si un évenement clique est déclenché sur celui-ci.</t>
+  </si>
+  <si>
+    <t>Article supprimé du DOM ainsi que du localstorage.</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, affiche de manière dynamique le total de la quantité et du prix de tous les articles sauvergardés dans le localstorage.</t>
+  </si>
+  <si>
+    <t>Affiche de manière dynamique dans le DOM le total de la quantité et du prix des articles contenus dans le localstorage "Data" à chaque évenement de changement.</t>
+  </si>
+  <si>
+    <t>Affiche de manière dynamique le total de la quantité et du prix de tous les articles affichés dans la page.</t>
+  </si>
+  <si>
+    <t>Affichage du formulaire, analyse les données avec Regex ainsi qu'avec la validation HTML  des valeurs des inputs à chaque évenement "change", si les données sont validées, couleur de la bordure de l'input change au vert et sauvegarde dans le localstorage, si non validées, bordure rouge et message d'erreur.</t>
+  </si>
+  <si>
+    <t>Depuis la page produit, affiche un menu déroulant de manière dynamique qui contient les différentes couleurs de l'article récupérées depuis l'API du serveur.</t>
+  </si>
+  <si>
+    <t>Affiche un menu déroulant sur la page avec les couleurs disponible de l'article récupérées depuis l'API.</t>
+  </si>
+  <si>
+    <t>Affiche les différentes couleurs de l'article.</t>
+  </si>
+  <si>
+    <t>Affiche un input qui définit la quantité de l'article.</t>
+  </si>
+  <si>
+    <t>Affiche le chiffre rentré par l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Depuis la page produit, bouton "Ajouter au panier" permettant une fois cliqué de sauvegarder les informations de l'article, de sa couleur et quantité dans le localstorage et d'avertir l'utilisateur d'un message que sa sélection a été ajoutée au panier.</t>
+  </si>
+  <si>
+    <t>Si la quantité est supérieur à 0, enregistre les informations de l'article, sa couleur et sa quantité puis sauvegardé dans le localstorage. Message  popup à l'utilisateur : "Votre sélection a été ajoutée au panier !".</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, boutton "Commander !" permettant d'envoyer les informations sauvegardées dans le localstorage du panier et du formulaire, au serveur via une requête si celles-ci sont valide.</t>
+  </si>
+  <si>
+    <t>Vérifie si au moins un article est présent dans  la clé "Data" du localstorage et si le formulaire possède bien toutes informations depuis la clé "Contact" du localstorage. Si oui, envoie une requête au serveur pour retourner un numéro de commande. Si non, demande d'ajouter un article au panier et si formulaire non complet, demande de le remplir.</t>
+  </si>
+  <si>
+    <t>Si un article et présent et si le formulaire est correctement rempli, redirige vers la page html "confirmation" dans lequel un message indique le succès  de la commande avec en son sein le numéro de la commande. Si la requête est incorrecte, un message d'erreur est affiché.</t>
+  </si>
+  <si>
+    <t>Depuis la page panier, affiche d'un formulaire permettant de récolter les informations entrées par l'utilisateur de son prénom, nom, adresse, ville et email et de vérifier si celles-ci sont valides. Si valide, bordure verte autour de l'input pour indiquer que donnée OK et sauvegarde dans le localstorage, sinon bordure rouge et message d'erreur.</t>
+  </si>
+  <si>
+    <t>Affiche un formulaire, si données valides, bordure verte autour de l'input et sauvegarde dans le localstorage et sinon, bordure rouge avec message d'erreur.</t>
   </si>
 </sst>
 </file>
@@ -683,10 +701,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -721,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>5</v>
@@ -735,30 +753,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>5</v>
@@ -769,81 +787,81 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="109.3" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="109.3" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="131.15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="87.45" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>5</v>
@@ -854,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>5</v>
@@ -871,36 +889,56 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+    <row r="12" spans="1:5" ht="174.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="196.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
@@ -961,11 +999,25 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.9" x14ac:dyDescent="0.7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
